--- a/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
+++ b/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="0" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="411" uniqueCount="61">
   <si>
     <t>예약번호</t>
   </si>
@@ -83,12 +86,208 @@
   </si>
   <si>
     <t>${management.deposit}</t>
+  </si>
+  <si>
+    <t>입금</t>
+  </si>
+  <si>
+    <t>gh</t>
+  </si>
+  <si>
+    <t>확인</t>
+  </si>
+  <si>
+    <t>입금유무</t>
+  </si>
+  <si>
+    <t>${management.reserNo}</t>
+  </si>
+  <si>
+    <t>${management.r_fullDate}</t>
+  </si>
+  <si>
+    <t>${management.r_lastfullDate}</t>
+  </si>
+  <si>
+    <t>${management.reser_select}박${management.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management.user_id}</t>
+  </si>
+  <si>
+    <t>${management.user_email}</t>
+  </si>
+  <si>
+    <t>${management.user_name}</t>
+  </si>
+  <si>
+    <t>${management.user_phone}</t>
+  </si>
+  <si>
+    <t>${management.room_name}</t>
+  </si>
+  <si>
+    <t>${management.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management.deposit}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reserNo}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.r_fullDate}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.r_lastfullDate}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reser_select}박${management_JxLsC_.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_id}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_email}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_phone}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.room_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.deposit}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reserNo}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.r_fullDate}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.r_lastfullDate}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reser_select}박${management_JxLsC_.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_id}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_email}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_phone}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.room_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.deposit}</t>
+  </si>
+  <si>
+    <t>1박2일</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>dfkdkj#@naver.com</t>
+  </si>
+  <si>
+    <t>심재훈</t>
+  </si>
+  <si>
+    <t>010-222-2222</t>
+  </si>
+  <si>
+    <t>아이비</t>
+  </si>
+  <si>
+    <t>4명</t>
+  </si>
+  <si>
+    <t>120000원</t>
+  </si>
+  <si>
+    <t>입금완료</t>
+  </si>
+  <si>
+    <t>입금전</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>jaehuniya</t>
+  </si>
+  <si>
+    <t>0615jaehuniya83@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5명</t>
+  </si>
+  <si>
+    <t>12박13일</t>
+  </si>
+  <si>
+    <t>릴리(복층)</t>
+  </si>
+  <si>
+    <t>8명</t>
+  </si>
+  <si>
+    <t>1520000원</t>
+  </si>
+  <si>
+    <t>7박8일</t>
+  </si>
+  <si>
+    <t>840000원</t>
+  </si>
+  <si>
+    <t>4박5일</t>
+  </si>
+  <si>
+    <t>jaehun</t>
+  </si>
+  <si>
+    <t>480000원</t>
+  </si>
+  <si>
+    <t>데이지(복층)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <color theme="1"/>
@@ -282,95 +481,781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="B1:M2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10" customWidth="true"/>
-    <col min="3" max="3" width="12.875" customWidth="true"/>
-    <col min="4" max="5" width="8" customWidth="true"/>
+    <col min="2" max="2" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.875" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="31.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
+      <c r="A2" t="n">
+        <v>2.0188153E7</v>
+      </c>
+      <c r="B2" t="n">
+        <v>43327.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>43328.0</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
-      </c>
-    </row>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="true">
+      <c r="A3" s="0" t="n">
+        <v>2.0188133E7</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>43325.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>43326.0</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="true">
+      <c r="A4" s="0" t="n">
+        <v>2.0188123E7</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>43324.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>43325.0</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="true">
+      <c r="A5" s="0" t="n">
+        <v>2.0188113E7</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>43323.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>43324.0</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="true">
+      <c r="A6" s="0" t="n">
+        <v>2018893.0</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>43321.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>43322.0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="true">
+      <c r="A7" s="0" t="n">
+        <v>2018883.0</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>43320.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>43321.0</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="true">
+      <c r="A8" s="0" t="n">
+        <v>2018873.0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>43319.0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>43320.0</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="true">
+      <c r="A9" s="0" t="n">
+        <v>2018863.0</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>43318.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>43319.0</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="true">
+      <c r="A10" s="0" t="n">
+        <v>2018853.0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>43317.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>43318.0</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="true">
+      <c r="A11" s="0" t="n">
+        <v>2018843.0</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>43316.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>43317.0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="true">
+      <c r="A12" s="0" t="n">
+        <v>2018833.0</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>43315.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>43316.0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="true">
+      <c r="A13" s="0" t="n">
+        <v>2018823.0</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>43314.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>43315.0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="true">
+      <c r="A14" s="0" t="n">
+        <v>2018813.0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>43313.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>43314.0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="true">
+      <c r="A15" s="0" t="n">
+        <v>2.0187183E7</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>43299.0</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>43300.0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="true">
+      <c r="A16" s="0" t="n">
+        <v>2.0187122E7</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>43293.0</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>43305.0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="true">
+      <c r="A17" s="0" t="n">
+        <v>2018732.0</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>43284.0</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>43291.0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="true">
+      <c r="A18" s="0" t="n">
+        <v>2.0186292E7</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>43280.0</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>43284.0</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="true">
+      <c r="A19" s="0" t="n">
+        <v>2.0186272E7</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>43278.0</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>43279.0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="true">
+      <c r="A20" s="0" t="n">
+        <v>2.0186271E7</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>43278.0</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>43279.0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" customHeight="true"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299986" footer="0.299986"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>
   <extLst/>
 </worksheet>
 </file>
--- a/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
+++ b/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
@@ -1,6 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
@@ -8,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="0" uniqueCount="0">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="426" uniqueCount="86">
   <si>
     <t>예약번호</t>
   </si>
@@ -113,12 +116,298 @@
   </si>
   <si>
     <t>${date.r_lastfullDate}</t>
+  </si>
+  <si>
+    <t>${fullDate_e_fullDate}</t>
+  </si>
+  <si>
+    <t>${data.data}</t>
+  </si>
+  <si>
+    <t>${data.b}</t>
+  </si>
+  <si>
+    <t>${a.a}</t>
+  </si>
+  <si>
+    <t>${managementr_lastFullDate}</t>
+  </si>
+  <si>
+    <t>${management.a}</t>
+  </si>
+  <si>
+    <t>${management.f_Date}</t>
+  </si>
+  <si>
+    <t>${managementr_l_Date}</t>
+  </si>
+  <si>
+    <t>${management.l_Date}</t>
+  </si>
+  <si>
+    <t>${management.reserNo}</t>
+  </si>
+  <si>
+    <t>${management.f_Date}</t>
+  </si>
+  <si>
+    <t>${management.l_Date}</t>
+  </si>
+  <si>
+    <t>${management.reser_select}박${management.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management.user_id}</t>
+  </si>
+  <si>
+    <t>${management.user_email}</t>
+  </si>
+  <si>
+    <t>${management.user_name}</t>
+  </si>
+  <si>
+    <t>${management.user_phone}</t>
+  </si>
+  <si>
+    <t>${management.room_name}</t>
+  </si>
+  <si>
+    <t>${management.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management.deposit}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reserNo}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.f_Date}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.l_Date}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reser_select}박${management_JxLsC_.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_id}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_email}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_phone}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.room_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.deposit}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reserNo}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.f_Date}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.l_Date}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.reser_select}박${management_JxLsC_.reser_select+1}일</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_id}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_email}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.user_phone}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.room_name}</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.inwon_check}명</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.total_pay}원</t>
+  </si>
+  <si>
+    <t>${management_JxLsC_.deposit}</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+  </si>
+  <si>
+    <t>2018-08-16</t>
+  </si>
+  <si>
+    <t>1박2일</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>dfkdkj#@naver.com</t>
+  </si>
+  <si>
+    <t>심재훈</t>
+  </si>
+  <si>
+    <t>010-222-2222</t>
+  </si>
+  <si>
+    <t>아이비</t>
+  </si>
+  <si>
+    <t>4명</t>
+  </si>
+  <si>
+    <t>120000원</t>
+  </si>
+  <si>
+    <t>입금완료</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-14</t>
+  </si>
+  <si>
+    <t>입금전</t>
+  </si>
+  <si>
+    <t>2018-08-12</t>
+  </si>
+  <si>
+    <t>2018-08-11</t>
+  </si>
+  <si>
+    <t>2018-08-09</t>
+  </si>
+  <si>
+    <t>2018-08-10</t>
+  </si>
+  <si>
+    <t>2018-08-08</t>
+  </si>
+  <si>
+    <t>2018-08-07</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>2018-08-04</t>
+  </si>
+  <si>
+    <t>2018-08-02</t>
+  </si>
+  <si>
+    <t>2018-08-03</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>jaehuniya</t>
+  </si>
+  <si>
+    <t>0615jaehuniya83@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5명</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>2018-07-24</t>
+  </si>
+  <si>
+    <t>12박13일</t>
+  </si>
+  <si>
+    <t>릴리(복층)</t>
+  </si>
+  <si>
+    <t>8명</t>
+  </si>
+  <si>
+    <t>1520000원</t>
+  </si>
+  <si>
+    <t>2018-07-03</t>
+  </si>
+  <si>
+    <t>2018-07-10</t>
+  </si>
+  <si>
+    <t>7박8일</t>
+  </si>
+  <si>
+    <t>840000원</t>
+  </si>
+  <si>
+    <t>2018-06-29</t>
+  </si>
+  <si>
+    <t>4박5일</t>
+  </si>
+  <si>
+    <t>jaehun</t>
+  </si>
+  <si>
+    <t>480000원</t>
+  </si>
+  <si>
+    <t>2018-06-27</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>데이지(복층)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <color theme="1"/>
@@ -321,10 +610,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="10" style="1" customWidth="true"/>
-    <col min="3" max="3" width="12.875" customWidth="true"/>
-    <col min="4" max="5" width="8" customWidth="true"/>
-    <col min="12" max="12" width="31" customWidth="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="10.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="12.875" collapsed="false"/>
+    <col min="4" max="5" customWidth="true" width="8.0" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="31.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -366,321 +655,967 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>12</v>
+      <c r="A2" t="n">
+        <v>2.0188153E7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="B4"/>
-    </row>
-    <row r="5">
-      <c r="B5"/>
-    </row>
-    <row r="6">
-      <c r="B6"/>
-    </row>
-    <row r="7">
-      <c r="B7"/>
-    </row>
-    <row r="8">
-      <c r="B8"/>
-    </row>
-    <row r="9">
-      <c r="B9"/>
-    </row>
-    <row r="10">
-      <c r="B10"/>
-    </row>
-    <row r="11">
-      <c r="B11"/>
-    </row>
-    <row r="12">
-      <c r="B12"/>
-    </row>
-    <row r="13">
-      <c r="B13"/>
-    </row>
-    <row r="14">
-      <c r="B14"/>
-    </row>
-    <row r="15">
-      <c r="B15"/>
-    </row>
-    <row r="16">
-      <c r="B16"/>
-    </row>
-    <row r="17">
-      <c r="B17"/>
-    </row>
-    <row r="18">
-      <c r="B18"/>
-    </row>
-    <row r="19">
-      <c r="B19"/>
-    </row>
-    <row r="20">
-      <c r="B20"/>
-    </row>
-    <row r="21">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" customHeight="true">
+      <c r="A3" s="0" t="n">
+        <v>2.0188133E7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" customHeight="true">
+      <c r="A4" s="0" t="n">
+        <v>2.0188123E7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" customHeight="true">
+      <c r="A5" s="0" t="n">
+        <v>2.0188113E7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" customHeight="true">
+      <c r="A6" s="0" t="n">
+        <v>2018893.0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" customHeight="true">
+      <c r="A7" s="0" t="n">
+        <v>2018883.0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" customHeight="true">
+      <c r="A8" s="0" t="n">
+        <v>2018873.0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" customHeight="true">
+      <c r="A9" s="0" t="n">
+        <v>2018863.0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" customHeight="true">
+      <c r="A10" s="0" t="n">
+        <v>2018853.0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" customHeight="true">
+      <c r="A11" s="0" t="n">
+        <v>2018843.0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" customHeight="true">
+      <c r="A12" s="0" t="n">
+        <v>2018823.0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" customHeight="true">
+      <c r="A13" s="0" t="n">
+        <v>2018813.0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="true">
+      <c r="A14" s="0" t="n">
+        <v>2.0187183E7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="true">
+      <c r="A15" s="0" t="n">
+        <v>2.0187122E7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" customHeight="true">
+      <c r="A16" s="0" t="n">
+        <v>2018732.0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" customHeight="true">
+      <c r="A17" s="0" t="n">
+        <v>2.0186292E7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" customHeight="true">
+      <c r="A18" s="0" t="n">
+        <v>2.0186271E7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" customHeight="true">
+      <c r="A19" s="0" t="n">
+        <v>2.0186272E7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" customHeight="true">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="true">
       <c r="B21"/>
     </row>
-    <row r="22">
+    <row r="22" ht="16.5" customHeight="true">
       <c r="B22"/>
     </row>
-    <row r="23">
+    <row r="23" ht="16.5" customHeight="true">
       <c r="B23"/>
     </row>
-    <row r="24">
+    <row r="24" ht="16.5" customHeight="true">
       <c r="B24"/>
     </row>
-    <row r="25">
+    <row r="25" ht="16.5" customHeight="true">
       <c r="B25"/>
     </row>
-    <row r="26">
+    <row r="26" ht="16.5" customHeight="true">
       <c r="B26"/>
     </row>
-    <row r="27">
+    <row r="27" ht="16.5" customHeight="true">
       <c r="B27"/>
     </row>
-    <row r="28">
+    <row r="28" ht="16.5" customHeight="true">
       <c r="B28"/>
     </row>
-    <row r="29">
+    <row r="29" ht="16.5" customHeight="true">
       <c r="B29"/>
     </row>
-    <row r="30">
+    <row r="30" ht="16.5" customHeight="true">
       <c r="B30"/>
     </row>
-    <row r="31">
+    <row r="31" ht="16.5" customHeight="true">
       <c r="B31"/>
     </row>
-    <row r="32">
+    <row r="32" ht="16.5" customHeight="true">
       <c r="B32"/>
     </row>
-    <row r="33">
+    <row r="33" ht="16.5" customHeight="true">
       <c r="B33"/>
     </row>
-    <row r="34">
+    <row r="34" ht="16.5" customHeight="true">
       <c r="B34"/>
     </row>
-    <row r="35">
+    <row r="35" ht="16.5" customHeight="true">
       <c r="B35"/>
     </row>
-    <row r="36">
+    <row r="36" ht="16.5" customHeight="true">
       <c r="B36"/>
     </row>
-    <row r="37">
+    <row r="37" ht="16.5" customHeight="true">
       <c r="B37"/>
     </row>
-    <row r="38">
+    <row r="38" ht="16.5" customHeight="true">
       <c r="B38"/>
     </row>
-    <row r="39">
+    <row r="39" ht="16.5" customHeight="true">
       <c r="B39"/>
     </row>
-    <row r="40">
+    <row r="40" ht="16.5" customHeight="true">
       <c r="B40"/>
     </row>
-    <row r="41">
+    <row r="41" ht="16.5" customHeight="true">
       <c r="B41"/>
     </row>
-    <row r="42">
+    <row r="42" ht="16.5" customHeight="true">
       <c r="B42"/>
     </row>
-    <row r="43">
+    <row r="43" ht="16.5" customHeight="true">
       <c r="B43"/>
     </row>
-    <row r="44">
+    <row r="44" ht="16.5" customHeight="true">
       <c r="B44"/>
     </row>
-    <row r="45">
+    <row r="45" ht="16.5" customHeight="true">
       <c r="B45"/>
     </row>
-    <row r="46">
+    <row r="46" ht="16.5" customHeight="true">
       <c r="B46"/>
     </row>
-    <row r="47">
+    <row r="47" ht="16.5" customHeight="true">
       <c r="B47"/>
     </row>
-    <row r="48">
+    <row r="48" ht="16.5" customHeight="true">
       <c r="B48"/>
     </row>
-    <row r="49">
+    <row r="49" ht="16.5" customHeight="true">
       <c r="B49"/>
     </row>
-    <row r="50">
+    <row r="50" ht="16.5" customHeight="true">
       <c r="B50"/>
     </row>
-    <row r="51">
+    <row r="51" ht="16.5" customHeight="true">
       <c r="B51"/>
     </row>
-    <row r="52">
+    <row r="52" ht="16.5" customHeight="true">
       <c r="B52"/>
     </row>
-    <row r="53">
+    <row r="53" ht="16.5" customHeight="true">
       <c r="B53"/>
     </row>
-    <row r="54">
+    <row r="54" ht="16.5" customHeight="true">
       <c r="B54"/>
     </row>
-    <row r="55">
+    <row r="55" ht="16.5" customHeight="true">
       <c r="B55"/>
     </row>
-    <row r="56">
+    <row r="56" ht="16.5" customHeight="true">
       <c r="B56"/>
     </row>
-    <row r="57">
+    <row r="57" ht="16.5" customHeight="true">
       <c r="B57"/>
     </row>
-    <row r="58">
+    <row r="58" ht="16.5" customHeight="true">
       <c r="B58"/>
     </row>
-    <row r="59">
+    <row r="59" ht="16.5" customHeight="true">
       <c r="B59"/>
     </row>
-    <row r="60">
+    <row r="60" ht="16.5" customHeight="true">
       <c r="B60"/>
     </row>
-    <row r="61">
+    <row r="61" ht="16.5" customHeight="true">
       <c r="B61"/>
     </row>
-    <row r="62">
+    <row r="62" ht="16.5" customHeight="true">
       <c r="B62"/>
     </row>
-    <row r="63">
+    <row r="63" ht="16.5" customHeight="true">
       <c r="B63"/>
     </row>
-    <row r="64">
+    <row r="64" ht="16.5" customHeight="true">
       <c r="B64"/>
     </row>
-    <row r="65">
+    <row r="65" ht="16.5" customHeight="true">
       <c r="B65"/>
     </row>
-    <row r="66">
+    <row r="66" ht="16.5" customHeight="true">
       <c r="B66"/>
     </row>
-    <row r="67">
+    <row r="67" ht="16.5" customHeight="true">
       <c r="B67"/>
     </row>
-    <row r="68">
+    <row r="68" ht="16.5" customHeight="true">
       <c r="B68"/>
     </row>
-    <row r="69">
+    <row r="69" ht="16.5" customHeight="true">
       <c r="B69"/>
     </row>
-    <row r="70">
+    <row r="70" ht="16.5" customHeight="true">
       <c r="B70"/>
     </row>
-    <row r="71">
+    <row r="71" ht="16.5" customHeight="true">
       <c r="B71"/>
     </row>
-    <row r="72">
+    <row r="72" ht="16.5" customHeight="true">
       <c r="B72"/>
     </row>
-    <row r="73">
+    <row r="73" ht="16.5" customHeight="true">
       <c r="B73"/>
     </row>
-    <row r="74">
+    <row r="74" ht="16.5" customHeight="true">
       <c r="B74"/>
     </row>
-    <row r="75">
+    <row r="75" ht="16.5" customHeight="true">
       <c r="B75"/>
     </row>
-    <row r="76">
+    <row r="76" ht="16.5" customHeight="true">
       <c r="B76"/>
     </row>
-    <row r="77">
+    <row r="77" ht="16.5" customHeight="true">
       <c r="B77"/>
     </row>
-    <row r="78">
+    <row r="78" ht="16.5" customHeight="true">
       <c r="B78"/>
     </row>
-    <row r="79">
+    <row r="79" ht="16.5" customHeight="true">
       <c r="B79"/>
     </row>
-    <row r="80">
+    <row r="80" ht="16.5" customHeight="true">
       <c r="B80"/>
     </row>
-    <row r="81">
+    <row r="81" ht="16.5" customHeight="true">
       <c r="B81"/>
     </row>
-    <row r="82">
+    <row r="82" ht="16.5" customHeight="true">
       <c r="B82"/>
     </row>
-    <row r="83">
+    <row r="83" ht="16.5" customHeight="true">
       <c r="B83"/>
     </row>
-    <row r="84">
+    <row r="84" ht="16.5" customHeight="true">
       <c r="B84"/>
     </row>
-    <row r="85">
+    <row r="85" ht="16.5" customHeight="true">
       <c r="B85"/>
     </row>
-    <row r="86">
+    <row r="86" ht="16.5" customHeight="true">
       <c r="B86"/>
     </row>
-    <row r="87">
+    <row r="87" ht="16.5" customHeight="true">
       <c r="B87"/>
     </row>
-    <row r="88">
+    <row r="88" ht="16.5" customHeight="true">
       <c r="B88"/>
     </row>
-    <row r="89">
+    <row r="89" ht="16.5" customHeight="true">
       <c r="B89"/>
     </row>
-    <row r="90">
+    <row r="90" ht="16.5" customHeight="true">
       <c r="B90"/>
     </row>
-    <row r="91">
+    <row r="91" ht="16.5" customHeight="true">
       <c r="B91"/>
     </row>
-    <row r="92">
+    <row r="92" ht="16.5" customHeight="true">
       <c r="B92"/>
     </row>
-    <row r="93">
+    <row r="93" ht="16.5" customHeight="true">
       <c r="B93"/>
     </row>
-    <row r="94">
+    <row r="94" ht="16.5" customHeight="true">
       <c r="B94"/>
     </row>
-    <row r="95">
+    <row r="95" ht="16.5" customHeight="true">
       <c r="B95"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="true">
+      <c r="B96"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="true">
+      <c r="B97"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="true">
+      <c r="B98"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="true">
+      <c r="B99"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="true">
+      <c r="B100"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="true">
+      <c r="B101"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="true">
+      <c r="B102"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="true">
+      <c r="B103"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="true">
+      <c r="B104"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="true">
+      <c r="B105"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="true">
+      <c r="B106"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="true">
+      <c r="B107"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="true">
+      <c r="B108"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="true">
+      <c r="B109"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="true">
+      <c r="B110"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="true">
+      <c r="B111"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="true">
+      <c r="B112"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.299972" footer="0.299972"/>

--- a/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
+++ b/pensionPJ/src/main/webapp/WEB-INF/download/예약현황.xlsx
@@ -610,10 +610,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" customWidth="true" style="1" width="10.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="12.875" collapsed="false"/>
-    <col min="4" max="5" customWidth="true" width="8.0" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="31.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.875" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="8.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="31.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
